--- a/analyses/table_1.xlsx
+++ b/analyses/table_1.xlsx
@@ -404,17 +404,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49968 (48.5)</t>
+          <t>49973 (48.5)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42903 (47.4)</t>
+          <t>42902 (47.4)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33836 (47.3)</t>
+          <t>33835 (47.3)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -431,17 +431,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53047 (51.5)</t>
+          <t>53051 (51.5)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>47541 (52.6)</t>
+          <t>47540 (52.6)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37669 (52.7)</t>
+          <t>37667 (52.7)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26683 (25.9)</t>
+          <t>26684 (25.9)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20790 (23.0)</t>
+          <t>20789 (23.0)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -490,17 +490,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29196 (28.3)</t>
+          <t>29199 (28.3)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25898 (28.6)</t>
+          <t>25897 (28.6)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20871 (29.2)</t>
+          <t>20870 (29.2)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25627 (24.9)</t>
+          <t>25629 (24.9)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19335 (27.0)</t>
+          <t>19333 (27.0)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21509 (20.9)</t>
+          <t>21512 (20.9)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26699 (25.9)</t>
+          <t>26700 (25.9)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24463 (27.0)</t>
+          <t>24462 (27.0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17603 (24.6)</t>
+          <t>17601 (24.6)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>59801 (58.1)</t>
+          <t>59804 (58.0)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51439 (56.9)</t>
+          <t>51438 (56.9)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6479 (6.3)</t>
+          <t>6481 (6.3)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10035 (9.7)</t>
+          <t>10038 (9.7)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6039 (8.4)</t>
+          <t>6038 (8.4)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>69806 (67.8)</t>
+          <t>69811 (67.8)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72576 (80.2)</t>
+          <t>72574 (80.2)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>58776 (82.2)</t>
+          <t>58774 (82.2)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33209 (32.2)</t>
+          <t>33213 (32.2)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12729 (17.8)</t>
+          <t>12728 (17.8)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54545 (60.3)</t>
+          <t>54543 (60.3)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50657 (70.8)</t>
+          <t>50654 (70.8)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>33954 (33.0)</t>
+          <t>33961 (33.0)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15656 (15.2)</t>
+          <t>15658 (15.2)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>38536 (37.4)</t>
+          <t>38542 (37.4)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>46775 (45.4)</t>
+          <t>46778 (45.4)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46689 (51.6)</t>
+          <t>46688 (51.6)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29278 (40.9)</t>
+          <t>29277 (40.9)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24970 (27.6)</t>
+          <t>24969 (27.6)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>36437 (51.0)</t>
+          <t>36435 (51.0)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3660 (5.1)</t>
+          <t>3659 (5.1)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23765 (23.1)</t>
+          <t>23768 (23.1)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14030 (19.6)</t>
+          <t>14029 (19.6)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7320 (7.1)</t>
+          <t>7321 (7.1)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2703 (3.0)</t>
+          <t>2702 (3.0)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3478 (3.4)</t>
+          <t>3479 (3.4)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26684 (25.9)</t>
+          <t>26686 (25.9)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29343 (28.5)</t>
+          <t>29345 (28.5)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25986 (28.7)</t>
+          <t>25985 (28.7)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20787 (29.1)</t>
+          <t>20786 (29.1)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23357 (32.7)</t>
+          <t>23355 (32.7)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>40542 (44.8)</t>
+          <t>40541 (44.8)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>46993 (65.7)</t>
+          <t>46992 (65.7)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>43475 (42.2)</t>
+          <t>43484 (42.2)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26412 (29.2)</t>
+          <t>26411 (29.2)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41660 (47.3)</t>
+          <t>41659 (47.3)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46325 (52.7)</t>
+          <t>46326 (52.7)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40309 (52.7)</t>
+          <t>40308 (52.7)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20018 (22.8)</t>
+          <t>20017 (22.8)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13510 (17.7)</t>
+          <t>13509 (17.7)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25099 (28.5)</t>
+          <t>25100 (28.5)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46283 (60.5)</t>
+          <t>46282 (60.5)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>62514 (81.7)</t>
+          <t>62513 (81.7)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2678,12 +2678,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>52825 (60.0)</t>
+          <t>52824 (60.0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>53580 (70.0)</t>
+          <t>53579 (70.0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7659 (8.7)</t>
+          <t>7660 (8.7)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45382 (51.6)</t>
+          <t>45383 (51.6)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31333 (40.9)</t>
+          <t>31332 (40.9)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23858 (27.1)</t>
+          <t>23857 (27.1)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5233 (5.9)</t>
+          <t>5232 (5.9)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22239 (25.3)</t>
+          <t>22240 (25.3)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20098 (26.3)</t>
+          <t>20097 (26.3)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22694 (25.8)</t>
+          <t>22695 (25.8)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>39056 (44.4)</t>
+          <t>39055 (44.4)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>49218 (64.3)</t>
+          <t>49217 (64.3)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
